--- a/02_transfer_template.xlsx
+++ b/02_transfer_template.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="134" documentId="11_67E589A417275CBC323A360346537E4810D8A703" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C591BD34-B439-754F-BA88-505AE5B3923E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10160" yWindow="-14160" windowWidth="51200" windowHeight="14160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>

--- a/02_transfer_template.xlsx
+++ b/02_transfer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_67E589A417275CBC323A360346537E4810D8A703" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C591BD34-B439-754F-BA88-505AE5B3923E}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_67E589A417275CBC323A360346537E4810D8A703" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E27CC1F-CCDD-8948-A9D4-E0E2C6A40BD9}"/>
   <bookViews>
-    <workbookView xWindow="-10160" yWindow="-14160" windowWidth="51200" windowHeight="14160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -627,9 +627,6 @@
     <t>34</t>
   </si>
   <si>
-    <t>2022-01-02</t>
-  </si>
-  <si>
     <t>MPA_INTRACOMPANY_TRANSFER_1</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2169,22 +2169,22 @@
         <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J6" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>174</v>
@@ -2197,7 +2197,7 @@
         <v>17101101</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>176</v>
@@ -2214,31 +2214,31 @@
         <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>176</v>
@@ -2255,34 +2255,34 @@
         <v>98</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>176</v>
@@ -2299,22 +2299,22 @@
         <v>82</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>174</v>
@@ -2326,7 +2326,7 @@
         <v>17101101</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>176</v>
@@ -2343,25 +2343,25 @@
         <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>174</v>
@@ -2375,7 +2375,7 @@
         <v>17101101</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>176</v>
@@ -2395,28 +2395,28 @@
         <v>179</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>174</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>176</v>
@@ -2428,7 +2428,7 @@
         <v>102</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z11" s="7" t="s">
         <v>177</v>
@@ -2439,31 +2439,31 @@
         <v>180</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>176</v>
@@ -2475,7 +2475,7 @@
         <v>102</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>177</v>
@@ -2486,34 +2486,34 @@
         <v>73</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K13" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="O13" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>176</v>
@@ -2525,7 +2525,7 @@
         <v>102</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z13" s="7" t="s">
         <v>177</v>
@@ -2536,22 +2536,22 @@
         <v>181</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>174</v>
@@ -2563,7 +2563,7 @@
         <v>17101101</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>176</v>
@@ -2575,7 +2575,7 @@
         <v>102</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>177</v>
@@ -2586,25 +2586,25 @@
         <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>174</v>
@@ -2618,7 +2618,7 @@
         <v>17101101</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>176</v>
@@ -2630,7 +2630,7 @@
         <v>102</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7" t="s">
@@ -2642,28 +2642,28 @@
         <v>182</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>174</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>176</v>
@@ -2673,7 +2673,7 @@
         <v>102</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z16" s="7" t="s">
         <v>177</v>
@@ -2684,31 +2684,31 @@
         <v>84</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>176</v>
@@ -2718,7 +2718,7 @@
         <v>102</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>177</v>
@@ -2729,34 +2729,34 @@
         <v>96</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K18" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="O18" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>176</v>
@@ -2766,7 +2766,7 @@
         <v>102</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z18" s="7" t="s">
         <v>177</v>
@@ -2777,22 +2777,22 @@
         <v>183</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>174</v>
@@ -2804,7 +2804,7 @@
         <v>17101101</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>176</v>
@@ -2814,7 +2814,7 @@
         <v>102</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z19" s="7" t="s">
         <v>177</v>
@@ -2825,25 +2825,25 @@
         <v>184</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>174</v>
@@ -2857,7 +2857,7 @@
         <v>17101101</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>176</v>
@@ -2867,7 +2867,7 @@
         <v>102</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
@@ -2879,29 +2879,29 @@
         <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
         <v>174</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O21" s="7"/>
       <c r="R21" s="7"/>
@@ -2925,31 +2925,31 @@
         <v>185</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="O22" s="7"/>
       <c r="R22" s="7"/>
@@ -2973,34 +2973,34 @@
         <v>106</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K23" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="O23" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>176</v>
@@ -3017,22 +3017,22 @@
         <v>186</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
@@ -3047,7 +3047,7 @@
         <v>17101101</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>176</v>
@@ -3068,25 +3068,25 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>174</v>
@@ -3100,7 +3100,7 @@
         <v>17101101</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>176</v>
@@ -3117,13 +3117,13 @@
         <v>188</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>189</v>
@@ -3132,19 +3132,19 @@
         <v>178</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>174</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O26" s="7"/>
       <c r="U26" s="7" t="s">
@@ -3163,13 +3163,13 @@
         <v>190</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>191</v>
@@ -3178,22 +3178,22 @@
         <v>192</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L27" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>176</v>
@@ -3210,13 +3210,13 @@
         <v>89</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>191</v>
@@ -3225,25 +3225,25 @@
         <v>192</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K28" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="O28" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>176</v>
@@ -3260,14 +3260,14 @@
         <v>193</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>196</v>
+      <c r="C29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>194</v>
@@ -3276,14 +3276,14 @@
         <v>195</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="9" t="s">
         <v>174</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="9" t="s">
@@ -3300,7 +3300,7 @@
         <v>17101101</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U29" s="9" t="s">
         <v>176</v>

--- a/02_transfer_template.xlsx
+++ b/02_transfer_template.xlsx
@@ -5,39 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_67E589A417275CBC323A360346537E4810D8A703" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E27CC1F-CCDD-8948-A9D4-E0E2C6A40BD9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_74C52BBB289758DFEEAB8D6150511F09096E07B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F520142-92FF-0D4E-B760-736E9C3D9DF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10160" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$AB$29</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="230">
   <si>
     <t>Asset Mass Transfer</t>
   </si>
@@ -63,19 +48,19 @@
     <t>BLDAT</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>BUDAT</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>BZDAT</t>
   </si>
   <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>LEDGER</t>
@@ -141,189 +126,195 @@
     <t>ERLBT</t>
   </si>
   <si>
+    <t>Revenue from asset sale (23)</t>
+  </si>
+  <si>
+    <t>AFABE</t>
+  </si>
+  <si>
+    <t>Base depreciation area for determining net book value (2)</t>
+  </si>
+  <si>
+    <t>ANLKL</t>
+  </si>
+  <si>
+    <t>Asset Class (8)</t>
+  </si>
+  <si>
+    <t>KOSTL</t>
+  </si>
+  <si>
+    <t>Cost Center (10)</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Asset Description (50)</t>
+  </si>
+  <si>
+    <t>TRAVA</t>
+  </si>
+  <si>
+    <t>*Transfer variant (4)</t>
+  </si>
+  <si>
+    <t>ANBTR</t>
+  </si>
+  <si>
+    <t>Amount posted (23)</t>
+  </si>
+  <si>
+    <t>MENGE</t>
+  </si>
+  <si>
+    <t>Quantity (13)</t>
+  </si>
+  <si>
+    <t>MEINS</t>
+  </si>
+  <si>
+    <t>Base Unit of Measure (3)</t>
+  </si>
+  <si>
+    <t>PROZS</t>
+  </si>
+  <si>
+    <t>Asset Retirement: Percentage Rate (5)</t>
+  </si>
+  <si>
+    <t>XANEU</t>
+  </si>
+  <si>
+    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition (1)</t>
+  </si>
+  <si>
+    <t>XBLNR</t>
+  </si>
+  <si>
+    <t>Reference Document Number (16)</t>
+  </si>
+  <si>
+    <t>DZUONR</t>
+  </si>
+  <si>
+    <t>Assignment number (18)</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMPORTANCE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Mandatory for sheet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting</t>
+  </si>
+  <si>
+    <t>Depreciation Area Real or Derived</t>
+  </si>
+  <si>
+    <t>Item Text</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Fiscal period</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Main Asset Number</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Asset Subnumber</t>
+  </si>
+  <si>
+    <t>Company code of partner</t>
+  </si>
+  <si>
+    <t>Main Number Partner Asset</t>
+  </si>
+  <si>
+    <t>Partner Asset Subnumber</t>
+  </si>
+  <si>
     <t>Revenue from asset sale</t>
   </si>
   <si>
-    <t>AFABE</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value (2)</t>
-  </si>
-  <si>
-    <t>ANLKL</t>
-  </si>
-  <si>
-    <t>Asset Class (8)</t>
-  </si>
-  <si>
-    <t>KOSTL</t>
-  </si>
-  <si>
-    <t>Cost Center (10)</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>Asset Description (50)</t>
-  </si>
-  <si>
-    <t>TRAVA</t>
-  </si>
-  <si>
-    <t>*Transfer variant (4)</t>
-  </si>
-  <si>
-    <t>ANBTR</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Base depreciation area for determining net book value</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Asset Description</t>
+  </si>
+  <si>
+    <t>Transfer variant</t>
   </si>
   <si>
     <t>Amount posted</t>
   </si>
   <si>
-    <t>MENGE</t>
-  </si>
-  <si>
-    <t>Quantity (13)</t>
-  </si>
-  <si>
-    <t>MEINS</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure (3)</t>
-  </si>
-  <si>
-    <t>PROZS</t>
-  </si>
-  <si>
-    <t>Asset Retirement: Percentage Rate (5)</t>
-  </si>
-  <si>
-    <t>XANEU</t>
-  </si>
-  <si>
-    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition (1)</t>
-  </si>
-  <si>
-    <t>XBLNR</t>
-  </si>
-  <si>
-    <t>Reference Document Number (16)</t>
-  </si>
-  <si>
-    <t>DZUONR</t>
-  </si>
-  <si>
-    <t>Assignment number (18)</t>
-  </si>
-  <si>
-    <t>FIELD NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Row Number</t>
-  </si>
-  <si>
-    <t>Mandatory for sheet</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
-  </si>
-  <si>
-    <t>Asset Value Date</t>
-  </si>
-  <si>
-    <t>Ledger in General Ledger Accounting</t>
-  </si>
-  <si>
-    <t>Depreciation Area Real or Derived</t>
-  </si>
-  <si>
-    <t>Item Text</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Fiscal period</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Main Asset Number</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Asset Subnumber</t>
-  </si>
-  <si>
-    <t>Company code of partner</t>
-  </si>
-  <si>
-    <t>Main Number Partner Asset</t>
-  </si>
-  <si>
-    <t>Partner Asset Subnumber</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value</t>
-  </si>
-  <si>
-    <t>Asset Class</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Asset Description</t>
-  </si>
-  <si>
-    <t>Transfer variant</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -561,9 +552,18 @@
     <t>For Manual revenue, the user has to provide the target company code (PBUKRS) and amount field (ERLBT) information. For Net book value field, the user should provide the target company code as mandatory with net book value (AFABE) respectively.</t>
   </si>
   <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_1</t>
+  </si>
+  <si>
     <t>1710</t>
   </si>
   <si>
+    <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
     <t>3200</t>
   </si>
   <si>
@@ -573,40 +573,118 @@
     <t>X</t>
   </si>
   <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_2</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_3</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_4</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_6</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_7</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_9</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_11</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_12</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_15</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_17</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0L</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>0L</t>
+    <t>MPA_INTRACOMPANY_TRANSFER_21</t>
   </si>
   <si>
     <t>22</t>
@@ -618,6 +696,12 @@
     <t>32</t>
   </si>
   <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_22</t>
+  </si>
+  <si>
+    <t>MPA_INTRACOMPANY_TRANSFER_23</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -627,107 +711,14 @@
     <t>34</t>
   </si>
   <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_1</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_2</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_3</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_4</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_5</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_6</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_7</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_8</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_9</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_10</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_11</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_12</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_13</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_14</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_15</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_16</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_17</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_18</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_19</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_20</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_21</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_22</t>
-  </si>
-  <si>
-    <t>MPA_INTRACOMPANY_TRANSFER_23</t>
-  </si>
-  <si>
     <t>MPA_INTRACOMPANY_TRANSFER_24</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>2022-01-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -759,10 +750,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -797,31 +784,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1149,337 +1127,337 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,43 +1498,60 @@
         <v>63</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1570,10 +1565,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -1587,30 +1582,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
@@ -1618,52 +1610,55 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -1672,32 +1667,29 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
@@ -1708,229 +1700,215 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1943,33 +1921,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -1983,12 +1962,12 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2166,47 +2145,47 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N6" s="7"/>
       <c r="R6" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S6" s="8">
         <v>17101101</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -2214,84 +2193,84 @@
         <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -2299,186 +2278,186 @@
         <v>82</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S9" s="8">
         <v>17101101</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S10" s="8">
         <v>17101101</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -2486,99 +2465,99 @@
         <v>73</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S14" s="8">
         <v>17101101</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -2586,462 +2565,462 @@
         <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S15" s="8">
         <v>17101101</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S19" s="8">
         <v>17101101</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="L20" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="R20" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S20" s="8">
         <v>17101101</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="M22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z23" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>214</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="R24" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S24" s="8">
         <v>17101101</v>
@@ -3050,276 +3029,262 @@
         <v>214</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="R25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S25" s="8">
         <v>17101101</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O26" s="7"/>
       <c r="U26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z27" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="U28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z28" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="S29" s="11">
+      <c r="G29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S29" s="8">
         <v>17101101</v>
       </c>
-      <c r="T29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
+      <c r="T29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AB29" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
